--- a/Team-Data/2007-08/12-11-2007-08.xlsx
+++ b/Team-Data/2007-08/12-11-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J2" t="n">
         <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>0.436</v>
+        <v>0.439</v>
       </c>
       <c r="L2" t="n">
         <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.314</v>
+        <v>0.307</v>
       </c>
       <c r="O2" t="n">
         <v>20.7</v>
       </c>
       <c r="P2" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
         <v>11.9</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -777,46 +844,46 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -962,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -980,22 +1047,22 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1108,43 +1175,43 @@
         <v>-6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1156,22 +1223,22 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.6</v>
+        <v>33.7</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.406</v>
+        <v>0.398</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
         <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.321</v>
+        <v>0.312</v>
       </c>
       <c r="O5" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P5" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
         <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y5" t="n">
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,19 +1381,19 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
         <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW5" t="n">
         <v>12</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>24</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA5" t="n">
         <v>15</v>
       </c>
-      <c r="BA5" t="n">
-        <v>16</v>
-      </c>
       <c r="BB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.435</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.378</v>
+        <v>0.372</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.713</v>
+        <v>0.709</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>43.2</v>
       </c>
       <c r="U6" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V6" t="n">
         <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1484,16 +1551,16 @@
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1502,31 +1569,31 @@
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
@@ -1541,13 +1608,13 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,19 +1733,19 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1863,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.714</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O9" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
         <v>5.6</v>
@@ -2006,19 +2073,19 @@
         <v>3.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA9" t="n">
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2033,49 +2100,49 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2090,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -2122,67 +2189,67 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="J10" t="n">
-        <v>90.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M10" t="n">
         <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.715</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U10" t="n">
         <v>22.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y10" t="n">
         <v>5.8</v>
@@ -2191,28 +2258,28 @@
         <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.7</v>
+        <v>110.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,40 +2297,40 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>25</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>25</v>
@@ -2272,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -2385,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2400,19 +2467,19 @@
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
         <v>6</v>
@@ -2433,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>13</v>
@@ -2457,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
         <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>87.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M12" t="n">
         <v>22.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
         <v>20</v>
@@ -2528,58 +2595,58 @@
         <v>0.75</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S12" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T12" t="n">
-        <v>45.9</v>
+        <v>46.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="AA12" t="n">
         <v>22.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2597,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>12</v>
@@ -2606,28 +2673,28 @@
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
@@ -2686,76 +2753,76 @@
         <v>33.1</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M13" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
         <v>22.2</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.791</v>
+        <v>0.796</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="T13" t="n">
-        <v>42.6</v>
+        <v>42.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.2</v>
+        <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2764,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2779,16 +2846,16 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>7</v>
@@ -2797,16 +2864,16 @@
         <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2818,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2937,7 +3004,7 @@
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -2949,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2973,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.466</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O15" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
         <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.1</v>
@@ -3101,28 +3168,28 @@
         <v>19.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="n">
         <v>26</v>
       </c>
-      <c r="AF15" t="n">
-        <v>27</v>
-      </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>13</v>
@@ -3164,19 +3231,19 @@
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-4.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -3322,28 +3389,28 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>30</v>
       </c>
       <c r="AR16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT16" t="n">
         <v>27</v>
       </c>
-      <c r="AS16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>28</v>
-      </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3361,13 +3428,13 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-5</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
@@ -3525,19 +3592,19 @@
         <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3549,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>0.158</v>
+        <v>0.167</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P18" t="n">
         <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.726</v>
+        <v>0.717</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
         <v>4.5</v>
@@ -3644,25 +3711,25 @@
         <v>5.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3671,13 +3738,13 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,40 +3762,40 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX18" t="n">
         <v>22</v>
       </c>
-      <c r="AW18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>23</v>
-      </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>0.409</v>
+        <v>0.429</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.318</v>
+        <v>0.324</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R19" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V19" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
@@ -3829,28 +3896,28 @@
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>90.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,16 +3926,16 @@
         <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3880,10 +3947,10 @@
         <v>17</v>
       </c>
       <c r="AR19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS19" t="n">
         <v>19</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>25</v>
@@ -3892,16 +3959,16 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3910,7 +3977,7 @@
         <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
@@ -4041,19 +4108,19 @@
         <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4071,13 +4138,13 @@
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-9</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -4217,7 +4284,7 @@
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -4226,13 +4293,13 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>16</v>
@@ -4247,19 +4314,19 @@
         <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,16 +4481,16 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4438,10 +4505,10 @@
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-0.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4587,7 +4654,7 @@
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4599,7 +4666,7 @@
         <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4617,16 +4684,16 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>10</v>
@@ -4635,10 +4702,10 @@
         <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4848,7 @@
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>28</v>
@@ -4820,7 +4887,7 @@
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -4852,67 +4919,67 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.429</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="P25" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.739</v>
       </c>
       <c r="R25" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="n">
         <v>29.2</v>
       </c>
       <c r="T25" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U25" t="n">
         <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>5.9</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
         <v>3.4</v>
@@ -4921,31 +4988,31 @@
         <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.1</v>
+        <v>-4.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
@@ -4954,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>22</v>
@@ -4963,46 +5030,46 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP25" t="n">
         <v>25</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AQ25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR25" t="n">
         <v>24</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
         <v>26</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>24</v>
       </c>
       <c r="AT25" t="n">
         <v>30</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS26" t="n">
         <v>22</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>6</v>
@@ -5175,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>38.1</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.475</v>
+        <v>0.48</v>
       </c>
       <c r="L27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="O27" t="n">
         <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T27" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="U27" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,19 +5349,19 @@
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5309,7 +5376,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
@@ -5327,49 +5394,49 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
       </c>
       <c r="AZ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC27" t="n">
         <v>2</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>3</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.227</v>
+        <v>0.238</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,67 +5483,67 @@
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M28" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P28" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.9</v>
       </c>
       <c r="U28" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8</v>
+        <v>-7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5506,16 +5573,16 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
@@ -5527,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,13 +5603,13 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.453</v>
       </c>
       <c r="L29" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="N29" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="O29" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="P29" t="n">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.829</v>
       </c>
       <c r="R29" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U29" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
@@ -5646,7 +5713,7 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA29" t="n">
         <v>17.6</v>
@@ -5655,13 +5722,13 @@
         <v>98.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>7</v>
@@ -5685,7 +5752,7 @@
         <v>5</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5700,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.591</v>
+        <v>0.619</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.495</v>
+        <v>0.501</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.359</v>
       </c>
       <c r="O30" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="P30" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="R30" t="n">
+        <v>12</v>
+      </c>
+      <c r="S30" t="n">
         <v>29.2</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="R30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>29.1</v>
-      </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="V30" t="n">
         <v>16.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.3</v>
+        <v>107.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5870,49 +5937,49 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR30" t="n">
         <v>13</v>
       </c>
-      <c r="AO30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>8</v>
-      </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,70 +6029,70 @@
         <v>37.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O31" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="P31" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R31" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="S31" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T31" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB31" t="n">
         <v>101.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -6034,37 +6101,37 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
       </c>
       <c r="AL31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM31" t="n">
         <v>16</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>14</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ31" t="n">
         <v>5</v>
       </c>
       <c r="AR31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6073,16 +6140,16 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6091,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-11-2007-08</t>
+          <t>2007-12-11</t>
         </is>
       </c>
     </row>
